--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_암기자료_3주차.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_국어_암기자료_3주차.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E15"/>
+  <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -797,14 +797,310 @@
           <t>30세</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>20221219</t>
-        </is>
+      <c r="D15" t="n">
+        <v>20221219</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>22시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>열두 발 상모</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>발</t>
+        </is>
+      </c>
+      <c r="D16" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>23시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>인삼 한 채</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>토리</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="D17" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>23시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>명주실 두 토리</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>올</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>토리</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>23시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>花婚式(화혼식)</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>10주년</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>6주년</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>23시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>빨랫감 두 쌈</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>타래</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>쌈</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>23시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>인삼 한 채</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>접</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>23시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>산수(傘壽)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>50세</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>88세</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>23시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>銀婚式(은혼식)</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>20주년</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>25주년</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>23시 28분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>인삼 한 채</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>죽</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>채</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>23시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>빨랫감 두 쌈</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>점</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>쌈</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>23시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>㉠채소나 과일 따위를 묶어 세는 단위. 한 접은 채소나 과일 백 개를 이른다.</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>첩</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>접</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20221220</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>23시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>방년(芳年). 묘년(妙年)</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>61세</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>20세</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20221220</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>23시 37분</t>
         </is>
       </c>
     </row>
